--- a/218-securité-corriger-typo/ig/CodeSystem-input-task-sdo-codesystem.xlsx
+++ b/218-securité-corriger-typo/ig/CodeSystem-input-task-sdo-codesystem.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-25T10:37:48+00:00</t>
+    <t>2024-11-26T07:49:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/218-securité-corriger-typo/ig/CodeSystem-input-task-sdo-codesystem.xlsx
+++ b/218-securité-corriger-typo/ig/CodeSystem-input-task-sdo-codesystem.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-26T07:49:21+00:00</t>
+    <t>2024-11-26T09:22:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
